--- a/output_validation/final__dimension_JIAF__platform_output.xlsx
+++ b/output_validation/final__dimension_JIAF__platform_output.xlsx
@@ -6,10 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="By dimension TOTAL" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="By -- Host Community" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="By -- New IDPs" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="By -- Protracted IDPs" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="By -- Host Community" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="By -- New IDPs" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="By -- Protracted IDPs" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -558,744 +557,9 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S16"/>
+  <dimension ref="A1:T58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="32" customWidth="1" min="5" max="5"/>
-    <col width="23" customWidth="1" min="6" max="6"/>
-    <col width="9" customWidth="1" min="7" max="7"/>
-    <col width="10" customWidth="1" min="8" max="8"/>
-    <col width="10" customWidth="1" min="9" max="9"/>
-    <col width="29" customWidth="1" min="10" max="10"/>
-    <col width="29" customWidth="1" min="11" max="11"/>
-    <col width="23" customWidth="1" min="12" max="12"/>
-    <col width="23" customWidth="1" min="13" max="13"/>
-    <col width="25" customWidth="1" min="14" max="14"/>
-    <col width="25" customWidth="1" min="15" max="15"/>
-    <col width="41" customWidth="1" min="16" max="16"/>
-    <col width="41" customWidth="1" min="17" max="17"/>
-    <col width="25" customWidth="1" min="18" max="18"/>
-    <col width="25" customWidth="1" min="19" max="19"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>By dimension TOTAL (5-17 y.o.)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="3" t="n"/>
-      <c r="C5" s="3" t="n"/>
-      <c r="D5" s="3" t="n"/>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>Strata</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>Population group</t>
-        </is>
-      </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>TotN</t>
-        </is>
-      </c>
-      <c r="H5" s="5" t="inlineStr">
-        <is>
-          <t>% Access</t>
-        </is>
-      </c>
-      <c r="I5" s="5" t="inlineStr">
-        <is>
-          <t># Access</t>
-        </is>
-      </c>
-      <c r="J5" s="6" t="inlineStr">
-        <is>
-          <t>% Aggravating circumstances</t>
-        </is>
-      </c>
-      <c r="K5" s="6" t="inlineStr">
-        <is>
-          <t># Aggravating circumstances</t>
-        </is>
-      </c>
-      <c r="L5" s="7" t="inlineStr">
-        <is>
-          <t>% Learning conditions</t>
-        </is>
-      </c>
-      <c r="M5" s="7" t="inlineStr">
-        <is>
-          <t># Learning conditions</t>
-        </is>
-      </c>
-      <c r="N5" s="8" t="inlineStr">
-        <is>
-          <t>% Protected environment</t>
-        </is>
-      </c>
-      <c r="O5" s="8" t="inlineStr">
-        <is>
-          <t># Protected environment</t>
-        </is>
-      </c>
-      <c r="P5" s="9" t="inlineStr">
-        <is>
-          <t>% Not falling within the PiN dimensions</t>
-        </is>
-      </c>
-      <c r="Q5" s="9" t="inlineStr">
-        <is>
-          <t># Not falling within the PiN dimensions</t>
-        </is>
-      </c>
-      <c r="R5" s="10" t="inlineStr">
-        <is>
-          <t>% Tot in PiN Dimensions</t>
-        </is>
-      </c>
-      <c r="S5" s="10" t="inlineStr">
-        <is>
-          <t># Tot in PiN Dimensions</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="n"/>
-      <c r="B6" s="11" t="n"/>
-      <c r="C6" s="11" t="n"/>
-      <c r="D6" s="11" t="n"/>
-      <c r="E6" s="12" t="inlineStr">
-        <is>
-          <t>TOTAL (5-17 y.o.)</t>
-        </is>
-      </c>
-      <c r="F6" s="12" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G6" s="12" t="n">
-        <v>8459995</v>
-      </c>
-      <c r="H6" s="13" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="I6" s="13" t="n">
-        <v>3679937</v>
-      </c>
-      <c r="J6" s="14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K6" s="14" t="n">
-        <v>152725</v>
-      </c>
-      <c r="L6" s="15" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="M6" s="15" t="n">
-        <v>470124</v>
-      </c>
-      <c r="N6" s="16" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="O6" s="16" t="n">
-        <v>858239</v>
-      </c>
-      <c r="P6" s="17" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="17" t="n">
-        <v>3298971</v>
-      </c>
-      <c r="R6" s="18" t="n">
-        <v>61</v>
-      </c>
-      <c r="S6" s="19" t="n">
-        <v>5161024</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="n"/>
-      <c r="B7" s="11" t="n"/>
-      <c r="C7" s="11" t="n"/>
-      <c r="D7" s="11" t="n"/>
-      <c r="E7" s="12" t="inlineStr">
-        <is>
-          <t>Host Community (5-17 y.o.)</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="inlineStr">
-        <is>
-          <t>Host Community</t>
-        </is>
-      </c>
-      <c r="G7" s="12" t="n">
-        <v>6886611</v>
-      </c>
-      <c r="H7" s="13" t="n">
-        <v>43.1</v>
-      </c>
-      <c r="I7" s="13" t="n">
-        <v>2968866</v>
-      </c>
-      <c r="J7" s="14" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="K7" s="14" t="n">
-        <v>96962</v>
-      </c>
-      <c r="L7" s="15" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="M7" s="15" t="n">
-        <v>417404</v>
-      </c>
-      <c r="N7" s="16" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="O7" s="16" t="n">
-        <v>676537</v>
-      </c>
-      <c r="P7" s="17" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="Q7" s="17" t="n">
-        <v>2726842</v>
-      </c>
-      <c r="R7" s="18" t="n">
-        <v>60.4</v>
-      </c>
-      <c r="S7" s="19" t="n">
-        <v>4159769</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="n"/>
-      <c r="B8" s="11" t="n"/>
-      <c r="C8" s="11" t="n"/>
-      <c r="D8" s="11" t="n"/>
-      <c r="E8" s="12" t="inlineStr">
-        <is>
-          <t>New IDPs (5-17 y.o.)</t>
-        </is>
-      </c>
-      <c r="F8" s="12" t="inlineStr">
-        <is>
-          <t>New IDPs</t>
-        </is>
-      </c>
-      <c r="G8" s="12" t="n">
-        <v>228282</v>
-      </c>
-      <c r="H8" s="13" t="n">
-        <v>57.8</v>
-      </c>
-      <c r="I8" s="13" t="n">
-        <v>132019</v>
-      </c>
-      <c r="J8" s="14" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="K8" s="14" t="n">
-        <v>4717</v>
-      </c>
-      <c r="L8" s="15" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="M8" s="15" t="n">
-        <v>2907</v>
-      </c>
-      <c r="N8" s="16" t="n">
-        <v>18.7</v>
-      </c>
-      <c r="O8" s="16" t="n">
-        <v>42668</v>
-      </c>
-      <c r="P8" s="17" t="n">
-        <v>20.1</v>
-      </c>
-      <c r="Q8" s="17" t="n">
-        <v>45971</v>
-      </c>
-      <c r="R8" s="18" t="n">
-        <v>79.90000000000001</v>
-      </c>
-      <c r="S8" s="19" t="n">
-        <v>182310</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="n"/>
-      <c r="B9" s="11" t="n"/>
-      <c r="C9" s="11" t="n"/>
-      <c r="D9" s="11" t="n"/>
-      <c r="E9" s="12" t="inlineStr">
-        <is>
-          <t>Protracted IDPs (5-17 y.o.)</t>
-        </is>
-      </c>
-      <c r="F9" s="12" t="inlineStr">
-        <is>
-          <t>Protracted IDPs</t>
-        </is>
-      </c>
-      <c r="G9" s="12" t="n">
-        <v>1345102</v>
-      </c>
-      <c r="H9" s="13" t="n">
-        <v>43</v>
-      </c>
-      <c r="I9" s="13" t="n">
-        <v>579052</v>
-      </c>
-      <c r="J9" s="14" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="K9" s="14" t="n">
-        <v>51046</v>
-      </c>
-      <c r="L9" s="15" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="M9" s="15" t="n">
-        <v>49813</v>
-      </c>
-      <c r="N9" s="16" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="O9" s="16" t="n">
-        <v>139034</v>
-      </c>
-      <c r="P9" s="17" t="n">
-        <v>39.1</v>
-      </c>
-      <c r="Q9" s="17" t="n">
-        <v>526157</v>
-      </c>
-      <c r="R9" s="18" t="n">
-        <v>60.9</v>
-      </c>
-      <c r="S9" s="19" t="n">
-        <v>818945</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="n"/>
-      <c r="B10" s="11" t="n"/>
-      <c r="C10" s="11" t="n"/>
-      <c r="D10" s="11" t="n"/>
-      <c r="E10" s="12" t="inlineStr">
-        <is>
-          <t>Girls</t>
-        </is>
-      </c>
-      <c r="F10" s="12" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G10" s="12" t="n">
-        <v>3848688</v>
-      </c>
-      <c r="H10" s="13" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="I10" s="13" t="n">
-        <v>1661991</v>
-      </c>
-      <c r="J10" s="14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K10" s="14" t="n">
-        <v>69716</v>
-      </c>
-      <c r="L10" s="15" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="M10" s="15" t="n">
-        <v>221678</v>
-      </c>
-      <c r="N10" s="16" t="n">
-        <v>10.7</v>
-      </c>
-      <c r="O10" s="16" t="n">
-        <v>412151</v>
-      </c>
-      <c r="P10" s="17" t="n">
-        <v>38.5</v>
-      </c>
-      <c r="Q10" s="17" t="n">
-        <v>1483153</v>
-      </c>
-      <c r="R10" s="18" t="n">
-        <v>61.5</v>
-      </c>
-      <c r="S10" s="19" t="n">
-        <v>2365535</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="n"/>
-      <c r="B11" s="11" t="n"/>
-      <c r="C11" s="11" t="n"/>
-      <c r="D11" s="11" t="n"/>
-      <c r="E11" s="12" t="inlineStr">
-        <is>
-          <t>Boys</t>
-        </is>
-      </c>
-      <c r="F11" s="12" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G11" s="12" t="n">
-        <v>4611307</v>
-      </c>
-      <c r="H11" s="13" t="n">
-        <v>43.8</v>
-      </c>
-      <c r="I11" s="13" t="n">
-        <v>2017946</v>
-      </c>
-      <c r="J11" s="14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K11" s="14" t="n">
-        <v>83009</v>
-      </c>
-      <c r="L11" s="15" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="M11" s="15" t="n">
-        <v>248447</v>
-      </c>
-      <c r="N11" s="16" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="O11" s="16" t="n">
-        <v>446088</v>
-      </c>
-      <c r="P11" s="17" t="n">
-        <v>39.4</v>
-      </c>
-      <c r="Q11" s="17" t="n">
-        <v>1815818</v>
-      </c>
-      <c r="R11" s="18" t="n">
-        <v>60.6</v>
-      </c>
-      <c r="S11" s="19" t="n">
-        <v>2795489</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="n"/>
-      <c r="B12" s="11" t="n"/>
-      <c r="C12" s="11" t="n"/>
-      <c r="D12" s="11" t="n"/>
-      <c r="E12" s="12" t="inlineStr">
-        <is>
-          <t>ECE (5 y.o.)</t>
-        </is>
-      </c>
-      <c r="F12" s="12" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G12" s="12" t="n">
-        <v>1505582</v>
-      </c>
-      <c r="H12" s="13" t="n">
-        <v>42.5</v>
-      </c>
-      <c r="I12" s="13" t="n">
-        <v>640300</v>
-      </c>
-      <c r="J12" s="14" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K12" s="14" t="n">
-        <v>36106</v>
-      </c>
-      <c r="L12" s="15" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="M12" s="15" t="n">
-        <v>62414</v>
-      </c>
-      <c r="N12" s="16" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O12" s="16" t="n">
-        <v>112713</v>
-      </c>
-      <c r="P12" s="17" t="n">
-        <v>43.4</v>
-      </c>
-      <c r="Q12" s="17" t="n">
-        <v>654050</v>
-      </c>
-      <c r="R12" s="18" t="n">
-        <v>56.6</v>
-      </c>
-      <c r="S12" s="19" t="n">
-        <v>851532</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="11" t="n"/>
-      <c r="B13" s="11" t="n"/>
-      <c r="C13" s="11" t="n"/>
-      <c r="D13" s="11" t="n"/>
-      <c r="E13" s="12" t="inlineStr">
-        <is>
-          <t>Primary school</t>
-        </is>
-      </c>
-      <c r="F13" s="12" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G13" s="12" t="n">
-        <v>2603075</v>
-      </c>
-      <c r="H13" s="13" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="I13" s="13" t="n">
-        <v>1132288</v>
-      </c>
-      <c r="J13" s="14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K13" s="14" t="n">
-        <v>46992</v>
-      </c>
-      <c r="L13" s="15" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="M13" s="15" t="n">
-        <v>144654</v>
-      </c>
-      <c r="N13" s="16" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="O13" s="16" t="n">
-        <v>264073</v>
-      </c>
-      <c r="P13" s="17" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q13" s="17" t="n">
-        <v>1015068</v>
-      </c>
-      <c r="R13" s="18" t="n">
-        <v>61</v>
-      </c>
-      <c r="S13" s="19" t="n">
-        <v>1588007</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11" t="n"/>
-      <c r="B14" s="11" t="n"/>
-      <c r="C14" s="11" t="n"/>
-      <c r="D14" s="11" t="n"/>
-      <c r="E14" s="12" t="inlineStr">
-        <is>
-          <t>Upper primary school</t>
-        </is>
-      </c>
-      <c r="F14" s="12" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G14" s="12" t="n">
-        <v>3253844</v>
-      </c>
-      <c r="H14" s="13" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="I14" s="13" t="n">
-        <v>1415360</v>
-      </c>
-      <c r="J14" s="14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K14" s="14" t="n">
-        <v>58740</v>
-      </c>
-      <c r="L14" s="15" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="M14" s="15" t="n">
-        <v>180817</v>
-      </c>
-      <c r="N14" s="16" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="O14" s="16" t="n">
-        <v>330092</v>
-      </c>
-      <c r="P14" s="17" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q14" s="17" t="n">
-        <v>1268835</v>
-      </c>
-      <c r="R14" s="18" t="n">
-        <v>61</v>
-      </c>
-      <c r="S14" s="19" t="n">
-        <v>1985009</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="11" t="n"/>
-      <c r="B15" s="11" t="n"/>
-      <c r="C15" s="11" t="n"/>
-      <c r="D15" s="11" t="n"/>
-      <c r="E15" s="12" t="inlineStr">
-        <is>
-          <t>Secondary school</t>
-        </is>
-      </c>
-      <c r="F15" s="12" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G15" s="12" t="n">
-        <v>1952307</v>
-      </c>
-      <c r="H15" s="13" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="I15" s="13" t="n">
-        <v>849216</v>
-      </c>
-      <c r="J15" s="14" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K15" s="14" t="n">
-        <v>35244</v>
-      </c>
-      <c r="L15" s="15" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="M15" s="15" t="n">
-        <v>108490</v>
-      </c>
-      <c r="N15" s="16" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="O15" s="16" t="n">
-        <v>198055</v>
-      </c>
-      <c r="P15" s="17" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q15" s="17" t="n">
-        <v>761301</v>
-      </c>
-      <c r="R15" s="18" t="n">
-        <v>61</v>
-      </c>
-      <c r="S15" s="19" t="n">
-        <v>1191006</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="11" t="n"/>
-      <c r="B16" s="11" t="n"/>
-      <c r="C16" s="11" t="n"/>
-      <c r="D16" s="11" t="n"/>
-      <c r="E16" s="20" t="inlineStr">
-        <is>
-          <t>Children with disability</t>
-        </is>
-      </c>
-      <c r="F16" s="20" t="inlineStr">
-        <is>
-          <t>All population groups</t>
-        </is>
-      </c>
-      <c r="G16" s="20" t="n">
-        <v>845999</v>
-      </c>
-      <c r="H16" s="21" t="n">
-        <v>43.5</v>
-      </c>
-      <c r="I16" s="21" t="n">
-        <v>367994</v>
-      </c>
-      <c r="J16" s="22" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="K16" s="22" t="n">
-        <v>15272</v>
-      </c>
-      <c r="L16" s="23" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="M16" s="23" t="n">
-        <v>47012</v>
-      </c>
-      <c r="N16" s="24" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="O16" s="24" t="n">
-        <v>85824</v>
-      </c>
-      <c r="P16" s="25" t="n">
-        <v>39</v>
-      </c>
-      <c r="Q16" s="25" t="n">
-        <v>329897</v>
-      </c>
-      <c r="R16" s="26" t="n">
-        <v>61</v>
-      </c>
-      <c r="S16" s="19" t="n">
-        <v>516102</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:S1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:T58"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -4497,7 +3761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5213,7 +4477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
